--- a/2 - RiverWare Modeling/Outputs/OutputAnnualDemandsRiverSMART.xlsx
+++ b/2 - RiverWare Modeling/Outputs/OutputAnnualDemandsRiverSMART.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD0581D-2D7A-40B7-A705-36834D4D5588}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="Trace5" sheetId="5" r:id="rId5"/>
     <sheet name="Trace3" sheetId="6" r:id="rId6"/>
     <sheet name="Trace6" sheetId="7" r:id="rId7"/>
+    <sheet name="Trace0" sheetId="8" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="22">
   <si>
     <t>Demand Data.AnnualDemands</t>
   </si>
@@ -103,6 +104,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="167" formatCode="m/yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="349">
     <border>
       <left/>
       <right/>
@@ -212,52 +217,820 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="229" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="236" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="243" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="250" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="264" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="271" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="278" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="285" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="292" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="299" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="306" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="313" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="320" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="322" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="327" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="329" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="334" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="336" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="341" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="343" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="348" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -558,17 +1331,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -576,7 +1349,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -584,7 +1357,7 @@
         <v>29220.313837167803</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -592,7 +1365,7 @@
         <v>10082.4086083518</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
@@ -600,7 +1373,7 @@
         <v>8568.6257256395093</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -608,7 +1381,7 @@
         <v>5998.0380079476599</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
@@ -616,7 +1389,7 @@
         <v>20659.9086940419</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -624,7 +1397,7 @@
         <v>6161.4719273261298</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
@@ -632,7 +1405,7 @@
         <v>10282.350870767399</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
@@ -640,7 +1413,7 @@
         <v>1428.1042876065901</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -648,7 +1421,7 @@
         <v>78259.243705318993</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
@@ -656,7 +1429,7 @@
         <v>54675.476132722899</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
@@ -664,7 +1437,7 @@
         <v>22022.498747762998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
@@ -672,7 +1445,7 @@
         <v>25227.265356579199</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
@@ -680,7 +1453,7 @@
         <v>19146.4261501074</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
@@ -688,7 +1461,7 @@
         <v>60315.351047977703</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
@@ -696,7 +1469,7 @@
         <v>15612.965530130499</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
@@ -704,7 +1477,7 @@
         <v>49714.969188046998</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>19</v>
       </c>
@@ -712,7 +1485,7 @@
         <v>10518.2083571405</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>20</v>
       </c>
@@ -720,7 +1493,7 @@
         <v>14955.577507809199</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
@@ -744,17 +1517,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -762,7 +1535,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -770,7 +1543,7 @@
         <v>26676.658269639898</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -778,7 +1551,7 @@
         <v>9204.7255371281699</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -786,7 +1559,7 @@
         <v>8259.5044350303306</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -794,7 +1567,7 @@
         <v>5781.6531045212396</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -802,7 +1575,7 @@
         <v>19914.582915573199</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -810,7 +1583,7 @@
         <v>5625.1100504672104</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
@@ -818,7 +1591,7 @@
         <v>9911.4053220364094</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -826,7 +1599,7 @@
         <v>1376.58407250506</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -834,7 +1607,7 @@
         <v>61727.055907091701</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
@@ -842,7 +1615,7 @@
         <v>43125.335898972698</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -850,7 +1623,7 @@
         <v>18279.6333167374</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
@@ -858,7 +1631,7 @@
         <v>20939.729209844601</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -866,7 +1639,7 @@
         <v>15892.367771641098</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
@@ -874,7 +1647,7 @@
         <v>50064.368860019502</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -882,7 +1655,7 @@
         <v>12959.441530522699</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
@@ -890,7 +1663,7 @@
         <v>41265.590136664599</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
@@ -898,7 +1671,7 @@
         <v>8730.5711363521696</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
@@ -906,7 +1679,7 @@
         <v>12413.7808345008</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -930,17 +1703,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -948,7 +1721,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -956,7 +1729,7 @@
         <v>24219.685375444598</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -964,7 +1737,7 @@
         <v>8356.9521423259594</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
@@ -972,7 +1745,7 @@
         <v>7994.8841418582606</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -980,7 +1753,7 @@
         <v>5596.4188993007901</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -988,7 +1761,7 @@
         <v>19276.5539864805</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
@@ -996,7 +1769,7 @@
         <v>5107.0263091991901</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
@@ -1004,7 +1777,7 @@
         <v>9593.8609702299109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
@@ -1012,7 +1785,7 @@
         <v>1332.4806903097101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
@@ -1020,7 +1793,7 @@
         <v>63678.274537778503</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
@@ -1028,7 +1801,7 @@
         <v>44488.546206416402</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1809,7 @@
         <v>19236.760853895899</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
@@ -1044,7 +1817,7 @@
         <v>22036.140231888199</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1825,7 @@
         <v>16724.4973095438</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
@@ -1060,7 +1833,7 @@
         <v>52685.755472983597</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
@@ -1068,7 +1841,7 @@
         <v>13638.002097911301</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
@@ -1076,7 +1849,7 @@
         <v>43426.2698380859</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
@@ -1084,7 +1857,7 @@
         <v>9187.7066764876108</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1092,7 +1865,7 @@
         <v>13063.770430630801</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>21</v>
       </c>
@@ -1116,17 +1889,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1134,7 +1907,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -1142,7 +1915,7 @@
         <v>19944.955109566999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1923,7 @@
         <v>6881.9653413202896</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1158,7 +1931,7 @@
         <v>7441.2679937622197</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1166,7 +1939,7 @@
         <v>5208.8875956335596</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1174,7 +1947,7 @@
         <v>17941.7239405156</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +1955,7 @@
         <v>4205.6454863623903</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1963,7 @@
         <v>8929.5215925146604</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1198,7 +1971,7 @@
         <v>1240.2113322937</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
@@ -1206,7 +1979,7 @@
         <v>40885.802350233302</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +1987,7 @@
         <v>28564.6858406258</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
@@ -1222,7 +1995,7 @@
         <v>14276.006121299202</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
@@ -1230,7 +2003,7 @@
         <v>16353.484624025499</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
@@ -1238,7 +2011,7 @@
         <v>12411.602336801099</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
@@ -1246,7 +2019,7 @@
         <v>39099.210794901497</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
@@ -1254,7 +2027,7 @@
         <v>10121.049115846399</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
@@ -1262,7 +2035,7 @@
         <v>32227.551132037304</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
@@ -1270,7 +2043,7 @@
         <v>6818.3909833071202</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
@@ -1278,7 +2051,7 @@
         <v>9694.8996793896804</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
@@ -1302,17 +2075,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1320,7 +2093,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1328,7 +2101,7 @@
         <v>29710.815617621498</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +2109,7 @@
         <v>10251.655229083401</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1344,7 +2117,7 @@
         <v>8874.7050080498393</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1352,7 +2125,7 @@
         <v>6212.2935056348897</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1360,7 +2133,7 @@
         <v>21397.899852742401</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1368,7 +2141,7 @@
         <v>6264.9004177732204</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1376,7 +2149,7 @@
         <v>10649.6460096598</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1384,7 +2157,7 @@
         <v>1479.11750134164</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1392,7 +2165,7 @@
         <v>76507.577107760197</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1400,7 +2173,7 @@
         <v>53451.681974834697</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1408,7 +2181,7 @@
         <v>25145.7975677984</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1416,7 +2189,7 @@
         <v>28805.074079530299</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -1424,7 +2197,7 @@
         <v>21861.831467526201</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -1432,7 +2205,7 @@
         <v>68869.460502850896</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1440,7 +2213,7 @@
         <v>17827.244544334699</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -1448,7 +2221,7 @@
         <v>56765.699733276291</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -1456,7 +2229,7 @@
         <v>12009.933166709699</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -1464,7 +2237,7 @@
         <v>17076.623721415301</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -1484,21 +2257,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1506,7 +2279,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1514,7 +2287,7 @@
         <v>28732.420962278102</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1522,7 +2295,7 @@
         <v>9914.0621850671996</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1530,7 +2303,7 @@
         <v>8820.1008614675793</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1538,7 +2311,7 @@
         <v>6174.0706030273004</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -1546,7 +2319,7 @@
         <v>21266.243188205201</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -1554,7 +2327,7 @@
         <v>6058.5935575410704</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1562,7 +2335,7 @@
         <v>10584.121033761099</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1570,7 +2343,7 @@
         <v>1470.0168102446</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +2351,7 @@
         <v>71276.983627979003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +2359,7 @@
         <v>49797.350864242697</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -1594,7 +2367,7 @@
         <v>24443.103311474799</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1602,7 +2375,7 @@
         <v>28000.122076950596</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1610,7 +2383,7 @@
         <v>21250.906983483699</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -1618,7 +2391,7 @@
         <v>66944.917278442095</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -1626,7 +2399,7 @@
         <v>17329.065780523099</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -1634,7 +2407,7 @@
         <v>55179.393669560603</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -1642,7 +2415,7 @@
         <v>11674.3179995103</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
@@ -1650,7 +2423,7 @@
         <v>16599.420905553801</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
@@ -1664,4 +2437,186 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B22"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="353" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="353" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>29220.313837167803</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="353" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10082.4086083518</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="353" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>8568.6257256395093</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="353" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5998.0380079476599</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="353" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>20659.9086940419</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="353" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6161.4719273261298</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="353" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10282.350870767399</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="353" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1428.1042876065901</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="353" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>78259.243705318993</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="353" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>54675.476132722899</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="353" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>22022.498747762998</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="353" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25227.265356579199</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="353" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>19146.4261501074</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="353" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>60315.351047977703</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="353" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>15612.965530130499</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="353" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>49714.969188046998</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="353" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>10518.2083571405</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="353" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>14955.577507809199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="353" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:B1"/>
+  </mergeCells>
+</worksheet>
 </file>
--- a/2 - RiverWare Modeling/Outputs/OutputAnnualDemandsRiverSMART.xlsx
+++ b/2 - RiverWare Modeling/Outputs/OutputAnnualDemandsRiverSMART.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,14 +10,15 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ABCD0C-2389-4DED-A831-3BB97BC3C84C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Trace0" sheetId="2" r:id="rId2"/>
     <sheet name="Run0" sheetId="3" r:id="rId3"/>
+    <sheet name="Trace1" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="22">
   <si>
     <t>Demand Data.AnnualDemands</t>
   </si>
@@ -99,6 +100,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="167" formatCode="m/yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1083">
     <border>
       <left/>
       <right/>
@@ -152,24 +157,2488 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1085">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="228" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="235" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="242" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="249" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="263" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="270" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="277" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="284" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="291" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="298" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="305" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="312" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="319" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="320" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="322" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="326" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="327" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="329" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="333" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="334" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="336" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="340" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="341" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="343" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="347" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="348" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="349" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="350" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="354" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="355" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="356" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="357" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="361" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="362" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="363" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="364" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="368" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="369" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="370" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="371" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="375" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="376" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="377" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="378" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="382" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="383" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="384" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="385" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="389" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="390" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="391" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="392" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="396" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="397" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="398" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="399" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="403" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="404" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="405" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="406" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="407" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="408" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="409" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="410" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="411" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="412" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="413" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="414" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="415" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="416" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="417" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="418" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="419" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="420" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="421" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="422" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="423" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="424" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="425" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="426" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="427" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="428" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="429" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="430" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="431" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="432" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="433" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="434" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="435" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="436" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="437" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="438" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="439" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="440" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="441" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="442" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="443" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="444" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="445" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="446" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="447" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="448" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="449" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="450" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="451" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="452" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="453" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="454" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="455" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="456" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="457" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="458" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="459" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="460" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="461" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="462" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="463" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="464" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="465" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="466" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="467" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="468" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="469" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="470" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="471" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="472" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="473" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="474" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="475" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="476" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="477" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="478" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="479" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="480" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="481" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="482" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="483" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="484" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="485" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="486" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="487" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="488" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="489" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="490" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="491" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="492" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="493" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="494" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="495" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="496" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="497" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="498" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="499" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="500" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="501" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="502" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="503" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="504" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="505" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="506" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="507" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="508" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="509" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="510" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="511" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="512" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="513" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="514" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="515" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="516" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="517" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="518" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="519" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="520" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="521" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="522" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="523" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="524" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="525" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="526" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="527" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="528" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="529" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="530" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="531" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="532" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="533" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="534" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="535" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="536" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="537" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="538" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="539" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="540" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="541" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="542" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="543" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="544" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="545" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="546" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="547" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="548" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="549" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="550" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="551" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="552" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="553" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="554" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="555" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="556" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="557" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="558" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="559" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="560" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="561" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="562" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="563" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="564" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="565" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="566" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="567" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="568" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="569" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="570" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="571" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="572" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="573" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="574" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="575" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="576" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="577" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="578" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="579" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="580" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="581" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="582" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="583" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="584" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="585" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="586" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="587" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="588" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="589" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="590" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="591" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="592" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="593" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="594" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="595" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="596" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="597" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="598" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="599" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="600" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="601" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="602" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="603" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="604" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="605" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="606" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="607" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="608" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="609" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="610" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="611" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="612" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="613" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="614" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="615" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="616" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="617" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="618" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="619" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="620" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="621" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="622" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="623" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="624" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="625" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="626" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="627" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="628" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="629" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="630" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="631" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="632" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="633" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="634" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="635" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="636" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="637" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="638" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="639" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="640" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="641" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="642" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="643" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="644" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="645" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="646" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="647" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="648" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="649" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="650" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="651" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="652" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="653" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="654" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="655" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="656" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="657" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="658" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="659" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="660" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="661" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="662" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="663" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="664" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="665" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="666" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="667" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="668" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="669" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="670" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="671" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="672" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="673" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="674" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="675" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="676" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="677" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="678" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="679" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="680" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="681" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="682" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="683" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="684" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="685" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="686" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="687" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="688" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="689" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="690" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="691" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="692" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="693" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="694" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="695" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="696" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="697" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="698" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="699" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="700" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="701" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="702" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="703" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="704" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="705" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="706" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="707" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="708" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="709" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="710" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="711" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="712" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="713" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="714" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="715" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="716" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="717" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="718" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="719" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="720" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="721" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="722" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="723" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="724" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="725" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="726" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="727" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="728" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="729" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="730" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="731" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="732" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="733" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="734" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="735" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="736" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="737" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="738" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="739" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="740" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="741" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="742" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="743" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="744" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="745" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="746" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="747" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="748" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="749" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="750" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="751" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="752" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="753" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="754" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="755" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="756" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="757" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="758" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="759" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="760" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="761" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="762" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="763" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="764" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="765" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="766" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="767" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="768" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="769" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="770" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="771" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="772" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="773" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="774" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="775" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="776" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="777" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="778" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="779" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="780" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="781" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="782" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="783" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="784" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="785" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="786" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="787" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="788" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="789" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="790" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="791" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="792" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="793" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="794" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="795" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="796" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="797" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="798" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="799" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="800" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="801" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="802" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="803" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="804" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="805" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="806" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="807" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="808" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="809" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="810" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="811" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="812" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="813" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="814" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="815" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="816" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="817" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="818" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="819" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="820" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="821" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="822" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="823" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="824" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="825" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="826" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="827" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="828" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="829" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="830" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="831" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="832" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="833" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="834" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="835" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="836" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="837" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="838" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="839" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="840" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="841" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="842" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="843" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="844" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="845" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="846" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="847" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="848" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="849" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="850" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="851" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="852" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="853" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="854" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="855" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="856" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="857" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="858" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="859" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="860" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="861" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="862" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="863" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="864" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="865" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="866" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="867" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="868" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="869" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="870" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="871" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="872" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="873" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="874" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="875" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="876" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="877" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="878" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="879" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="880" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="881" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="882" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="883" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="884" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="885" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="886" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="887" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="888" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="889" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="890" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="891" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="892" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="893" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="894" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="895" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="896" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="897" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="898" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="899" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="900" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="901" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="902" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="903" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="904" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="905" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="906" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="907" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="908" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="909" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="910" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="911" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="912" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="913" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="914" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="915" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="916" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="917" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="918" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="919" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="920" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="921" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="922" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="923" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="924" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="925" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="926" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="927" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="928" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="929" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="930" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="931" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="932" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="933" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="934" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="935" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="936" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="937" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="938" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="939" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="940" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="941" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="942" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="943" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="944" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="945" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="946" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="947" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="948" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="949" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="950" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="951" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="952" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="953" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="954" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="955" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="956" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="957" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="958" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="959" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="960" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="961" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="962" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="963" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="964" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="965" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="966" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="967" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="968" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="969" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="970" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="971" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="972" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="973" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="974" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="975" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="976" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="977" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="978" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="979" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="980" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="981" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="982" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="983" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="984" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="985" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="986" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="987" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="988" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="989" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="990" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="991" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="992" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="993" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="994" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="995" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="996" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="997" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="998" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="999" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1000" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1001" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1002" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1003" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1004" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1005" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1006" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1007" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1008" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1009" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1010" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1011" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1012" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1013" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1014" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1015" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1016" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1017" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1018" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1019" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1020" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1021" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1022" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1023" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1024" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1025" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1026" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1027" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1028" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1029" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1030" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1031" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1032" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1033" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1034" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1035" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1036" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1037" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1038" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1039" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1040" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1041" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1042" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1043" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1044" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1045" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1046" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1047" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1048" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1049" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1050" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1051" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1052" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1053" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1054" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1055" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1056" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1057" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1058" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1059" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1060" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1061" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1062" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1063" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1064" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1065" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1066" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1067" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1068" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1069" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1070" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1071" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1072" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1073" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1074" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1075" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1076" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1077" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1078" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1079" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1080" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1081" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1082" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -472,170 +2941,170 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1083" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1083" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>29220.313837167803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+        <v>28732.420962278102</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1083" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10082.4086083518</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+        <v>9914.0621850671996</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1083" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8568.6257256395093</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+        <v>8820.1008614675793</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1083" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5998.0380079476599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+        <v>6174.0706030273004</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1083" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20659.9086940419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+        <v>21266.243188205201</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1083" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6161.4719273261298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+        <v>6058.5935575410704</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1083" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10282.350870767399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+        <v>10584.121033761099</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1083" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1428.1042876065901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+        <v>1470.0168102446</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1083" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>78259.243705318993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+        <v>71276.983627979003</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1083" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>54675.476132722899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+        <v>49797.350864242697</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1083" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>22022.498747762998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+        <v>24443.103311474799</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1083" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>25227.265356579199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+        <v>28000.122076950596</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1083" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>19146.4261501074</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+        <v>21250.906983483699</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1083" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>60315.351047977703</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+        <v>66944.917278442095</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1083" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>15612.965530130499</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+        <v>17329.065780523099</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1083" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>49714.969188046998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+        <v>55179.393669560603</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1083" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>10518.2083571405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+        <v>11674.3179995103</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1083" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>14955.577507809199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+        <v>16599.420905553801</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1083" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -654,23 +3123,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="L7" sqref="K7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -678,7 +3147,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -686,7 +3155,7 @@
         <v>29710.815617621498</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -694,7 +3163,7 @@
         <v>10251.655229083401</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -702,7 +3171,7 @@
         <v>8874.7050080498393</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -710,7 +3179,7 @@
         <v>6212.2935056348897</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -718,7 +3187,7 @@
         <v>21397.899852742401</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -726,7 +3195,7 @@
         <v>6264.9004177732204</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -734,7 +3203,7 @@
         <v>10649.6460096598</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -742,7 +3211,7 @@
         <v>1479.11750134164</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -750,7 +3219,7 @@
         <v>76507.577107760197</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -758,7 +3227,7 @@
         <v>53451.681974834697</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -766,7 +3235,7 @@
         <v>25145.7975677984</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -774,7 +3243,7 @@
         <v>28805.074079530299</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -782,7 +3251,7 @@
         <v>21861.831467526201</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -790,7 +3259,7 @@
         <v>68869.460502850896</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -798,7 +3267,7 @@
         <v>17827.244544334699</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -806,7 +3275,7 @@
         <v>56765.699733276291</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -814,7 +3283,7 @@
         <v>12009.933166709699</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -822,7 +3291,7 @@
         <v>17076.623721415301</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -836,4 +3305,186 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B22"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>29220.313837167803</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10082.4086083518</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>8568.6257256395093</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5998.0380079476599</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>20659.9086940419</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6161.4719273261298</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10282.350870767399</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1428.1042876065901</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>78259.243705318993</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>54675.476132722899</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>22022.498747762998</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>25227.265356579199</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>19146.4261501074</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>60315.351047977703</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>15612.965530130499</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>49714.969188046998</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>10518.2083571405</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>14955.577507809199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:B1"/>
+  </mergeCells>
+</worksheet>
 </file>
--- a/2 - RiverWare Modeling/Outputs/OutputAnnualDemandsRiverSMART.xlsx
+++ b/2 - RiverWare Modeling/Outputs/OutputAnnualDemandsRiverSMART.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7666" uniqueCount="22">
   <si>
     <t>Demand Data.AnnualDemands</t>
   </si>
@@ -121,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1083">
+  <borders count="2672">
     <border>
       <left/>
       <right/>
@@ -1235,11 +1235,1600 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1085">
+  <cellXfs count="2674">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -2639,6 +4228,2049 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1080" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1081" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1082" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1083" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1084" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1085" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1086" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1087" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1088" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1089" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1090" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1091" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1092" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1093" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1094" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1095" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1096" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1097" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1098" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1099" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1103" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1110" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1117" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1124" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1131" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1138" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1145" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1152" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1159" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1166" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1173" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1180" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1187" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1194" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1201" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1208" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1215" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1222" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1229" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1236" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1243" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1250" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1257" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1264" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1271" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1278" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1285" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1292" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1299" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1306" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1313" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1320" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1322" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1327" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1329" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1334" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1336" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1341" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1343" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1348" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1349" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1350" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1354" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1355" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1356" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1357" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1361" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1362" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1363" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1364" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1368" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1369" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1370" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1371" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1375" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1376" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1377" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1378" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1382" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1383" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1384" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1385" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1389" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1390" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1391" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1392" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1396" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1397" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1398" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1399" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1403" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1404" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1405" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1406" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1407" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1408" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1409" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1410" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1411" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1412" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1413" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1414" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1415" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1416" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1417" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1418" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1419" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1420" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1421" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1422" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1423" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1424" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1425" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1426" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1427" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1428" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1429" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1430" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1431" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1432" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1433" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1434" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1435" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1436" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1437" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1438" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1439" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1440" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1441" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1442" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1443" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1444" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1445" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1446" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1447" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1448" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1449" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1450" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1451" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1452" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1453" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1454" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1455" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1456" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1457" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1458" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1459" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1460" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1461" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1462" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1463" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1464" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1465" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1466" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1467" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1468" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1469" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1470" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1471" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1472" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1473" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1474" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1475" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1476" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1477" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1478" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1479" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1480" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1481" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1482" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1483" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1484" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1485" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1486" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1487" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1488" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1489" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1490" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1491" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1492" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1493" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1494" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1495" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1496" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1497" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1498" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1499" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1500" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1501" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1502" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1503" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1504" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1505" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1506" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1507" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1508" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1509" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1510" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1511" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1512" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1513" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1514" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1515" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1516" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1517" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1518" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1519" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1520" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1521" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1522" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1523" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1524" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1525" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1526" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1527" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1528" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1529" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1530" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1531" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1532" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1533" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1534" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1535" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1536" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1537" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1538" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1539" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1540" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1541" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1542" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1543" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1544" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1545" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1546" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1547" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1548" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1549" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1550" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1551" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1552" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1553" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1554" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1555" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1556" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1557" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1558" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1559" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1560" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1561" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1562" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1563" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1564" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1565" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1566" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1567" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1568" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1569" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1570" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1571" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1572" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1573" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1574" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1575" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1576" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1577" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1578" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1579" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1580" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1581" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1582" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1583" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1584" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1585" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1586" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1587" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1588" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1589" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1590" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1591" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1592" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1593" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1594" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1595" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1596" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1597" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1598" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1599" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1600" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1601" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1602" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1603" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1604" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1605" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1606" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1607" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1608" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1609" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1610" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1611" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1612" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1613" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1614" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1615" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1616" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1617" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1618" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1619" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1620" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1621" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1622" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1623" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1624" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1625" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1626" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1627" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1628" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1629" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1630" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1631" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1632" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1633" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1634" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1635" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1636" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1637" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1638" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1639" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1640" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1641" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1642" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1643" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1644" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1645" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1646" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1647" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1648" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1649" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1650" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1651" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1652" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1653" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1654" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1655" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1656" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1657" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1658" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1659" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1660" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1661" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1662" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1663" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1664" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1665" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1666" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1667" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1668" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1669" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1670" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1671" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1672" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1673" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1674" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1675" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1676" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1677" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1678" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1679" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1680" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1681" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1682" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1683" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1684" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1685" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1686" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1687" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1688" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1689" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1690" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1691" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1692" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1693" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1694" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1695" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1696" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1697" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1698" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1699" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1700" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1701" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1702" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1703" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1704" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1705" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1706" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1707" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1708" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1709" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1710" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1711" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1712" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1713" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1714" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1715" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1716" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1717" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1718" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1719" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1720" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1721" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1722" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1723" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1724" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1725" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1726" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1727" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1728" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1729" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1730" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1731" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1732" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1733" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1734" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1735" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1736" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1737" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1738" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1739" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1740" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1741" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1742" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1743" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1744" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1745" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1746" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1747" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1748" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1749" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1750" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1751" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1752" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1753" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1754" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1755" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1756" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1757" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1758" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1759" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1760" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1761" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1762" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1763" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1764" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1765" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1766" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1767" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1768" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1769" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1770" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1771" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1772" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1773" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1774" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1775" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1776" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1777" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1778" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1779" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1780" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1781" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1782" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1783" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1784" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1785" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1786" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1787" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1788" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1789" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1790" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1791" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1792" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1793" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1794" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1795" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1796" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1797" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1798" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1799" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1800" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1801" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1802" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1803" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1804" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1805" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1806" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1807" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1808" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1809" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1810" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1811" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1812" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1813" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1814" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1815" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1816" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1817" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1818" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1819" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1820" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1821" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1822" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1823" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1824" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1825" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1826" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1827" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1828" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1829" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1830" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1831" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1832" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1833" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1834" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1835" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1836" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1837" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1838" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1839" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1840" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1841" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1842" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1843" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1844" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1845" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1846" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1847" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1848" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1849" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1850" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1851" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1852" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1853" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1854" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1855" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1856" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1857" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1858" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1859" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1860" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1861" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1862" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1863" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1864" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1865" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1866" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1867" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1868" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1869" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1870" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1871" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1872" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1873" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1874" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1875" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1876" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1877" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1878" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1879" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1880" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1881" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1882" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1883" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1884" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1885" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1886" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1887" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1888" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1889" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1890" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1891" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1892" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1893" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1894" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1895" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1896" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1897" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1898" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1899" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1900" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1901" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1902" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1903" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1904" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1905" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1906" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1907" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1908" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1909" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1910" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1911" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1912" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1913" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1914" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1915" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1916" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1917" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1918" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1919" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1920" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1921" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1922" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1923" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1924" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1925" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1926" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1927" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1928" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1929" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1930" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1931" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1932" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1933" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1934" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1935" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1936" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1937" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1938" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1939" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1940" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1941" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1942" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1943" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1944" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1945" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1946" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1947" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1948" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1949" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1950" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1951" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1952" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1953" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1954" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1955" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1956" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1957" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1958" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1959" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1960" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1961" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1962" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1963" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1964" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1965" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1966" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1967" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1968" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1969" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1970" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1971" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1972" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1973" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1974" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1975" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1976" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1977" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1978" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1979" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1980" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1981" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1982" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1983" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1984" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1985" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1986" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1987" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1988" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1989" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1990" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1991" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1992" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1993" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1994" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1995" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1996" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1997" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1998" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1999" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2000" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2001" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2002" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2003" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2004" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2005" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2006" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2007" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2008" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2009" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2010" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2011" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2012" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2013" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2014" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2015" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2016" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2017" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2018" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2019" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2020" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2021" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2022" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2023" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2024" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2025" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2026" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2027" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2028" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2029" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2030" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2031" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2032" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2033" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2034" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2035" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2036" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2037" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2038" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2039" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2040" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2041" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2042" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2043" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2044" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2045" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2046" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2047" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2048" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2049" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2050" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2051" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2052" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2053" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2054" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2055" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2056" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2057" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2058" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2059" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2060" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2061" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2062" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2063" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2064" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2065" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2066" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2067" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2068" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2069" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2070" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2071" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2072" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2073" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2074" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2075" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2076" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2077" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2078" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2079" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2080" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2081" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2082" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2083" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2084" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2085" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2086" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2087" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2088" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2089" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2090" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2091" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2092" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2093" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2094" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2095" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2096" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2097" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2098" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2099" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2104" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2111" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2118" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2125" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2132" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2139" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2146" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2153" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2160" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2167" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2174" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2181" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2188" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2195" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2202" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2209" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2216" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2223" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2230" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2237" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2244" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2251" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2258" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2265" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2272" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2279" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2286" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2293" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2300" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2307" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2314" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2320" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2321" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2322" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2327" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2328" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2329" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2334" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2335" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2336" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2341" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2342" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2343" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2348" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2349" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2350" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2354" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2355" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2356" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2357" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2361" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2362" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2363" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2364" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2368" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2369" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2370" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2371" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2375" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2376" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2377" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2378" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2382" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2383" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2384" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2385" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2389" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2390" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2391" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2392" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2396" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2397" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2398" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2399" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2403" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2404" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2405" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2406" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2407" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2408" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2409" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2410" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2411" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2412" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2413" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2414" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2415" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2416" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2417" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2418" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2419" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2420" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2421" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2422" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2423" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2424" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2425" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2426" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2427" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2428" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2429" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2430" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2431" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2432" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2433" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2434" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2435" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2436" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2437" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2438" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2439" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2440" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2441" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2442" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2443" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2444" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2445" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2446" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2447" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2448" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2449" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2450" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2451" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2452" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2453" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2454" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2455" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2456" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2457" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2458" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2459" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2460" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2461" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2462" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2463" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2464" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2465" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2466" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2467" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2468" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2469" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2470" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2471" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2472" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2473" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2474" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2475" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2476" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2477" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2478" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2479" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2480" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2481" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2482" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2483" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2484" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2485" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2486" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2487" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2488" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2489" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2490" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2491" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2492" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2493" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2494" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2495" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2496" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2497" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2498" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2499" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2500" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2501" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2502" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2503" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2504" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2505" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2506" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2507" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2508" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2509" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2510" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2511" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2512" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2513" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2514" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2515" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2516" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2517" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2518" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2519" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2520" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2521" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2522" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2523" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2524" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2525" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2526" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2527" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2528" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2529" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2530" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2531" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2532" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2533" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2534" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2535" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2536" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2537" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2538" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2539" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2540" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2541" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2542" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2543" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2544" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2545" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2546" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2547" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2548" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2549" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2550" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2551" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2552" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2553" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2554" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2555" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2556" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2557" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2558" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2559" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2560" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2561" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2562" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2563" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2564" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2565" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2566" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2567" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2568" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2569" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2570" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2571" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2572" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2573" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2574" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2575" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2576" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2577" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2578" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2579" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2580" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2581" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2582" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2583" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2584" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2585" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2586" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2587" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2588" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2589" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2590" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2591" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2592" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2593" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2594" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2595" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2596" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2597" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2598" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2599" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2600" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2601" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2602" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2603" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2604" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2605" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2606" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2607" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2608" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2609" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2610" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2611" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2612" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2613" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2614" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2615" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2616" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2617" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2618" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2619" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2620" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2621" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2622" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2623" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2624" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2625" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2626" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2627" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2628" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2629" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2630" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2631" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2632" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2633" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2634" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2635" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2636" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2637" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2638" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2639" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2640" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2641" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2642" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2643" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2644" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2645" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2646" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2647" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2648" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2649" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2650" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2651" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2652" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2653" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2654" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2655" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2656" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2657" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2658" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2659" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2660" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2661" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2662" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2663" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2664" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2665" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2666" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2667" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2668" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2669" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2670" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2671" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2952,7 +6584,7 @@
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1083" t="s">
+      <c r="A3" s="2672" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -2960,7 +6592,7 @@
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1083" t="s">
+      <c r="A4" s="2672" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -2968,7 +6600,7 @@
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1083" t="s">
+      <c r="A5" s="2672" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -2976,7 +6608,7 @@
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1083" t="s">
+      <c r="A6" s="2672" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -2984,7 +6616,7 @@
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1083" t="s">
+      <c r="A7" s="2672" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -2992,7 +6624,7 @@
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1083" t="s">
+      <c r="A8" s="2672" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -3000,7 +6632,7 @@
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1083" t="s">
+      <c r="A9" s="2672" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -3008,7 +6640,7 @@
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1083" t="s">
+      <c r="A10" s="2672" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -3016,7 +6648,7 @@
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1083" t="s">
+      <c r="A11" s="2672" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -3024,7 +6656,7 @@
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1083" t="s">
+      <c r="A12" s="2672" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -3032,7 +6664,7 @@
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1083" t="s">
+      <c r="A13" s="2672" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -3040,7 +6672,7 @@
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1083" t="s">
+      <c r="A14" s="2672" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -3048,7 +6680,7 @@
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1083" t="s">
+      <c r="A15" s="2672" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -3056,7 +6688,7 @@
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1083" t="s">
+      <c r="A16" s="2672" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -3064,7 +6696,7 @@
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1083" t="s">
+      <c r="A17" s="2672" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -3072,7 +6704,7 @@
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1083" t="s">
+      <c r="A18" s="2672" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -3080,7 +6712,7 @@
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1083" t="s">
+      <c r="A19" s="2672" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -3088,7 +6720,7 @@
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1083" t="s">
+      <c r="A20" s="2672" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -3096,7 +6728,7 @@
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="1083" t="s">
+      <c r="A21" s="2672" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -3104,7 +6736,7 @@
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
-      <c r="A22" s="1083" t="s">
+      <c r="A22" s="2672" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -3323,7 +6955,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="1090" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -3331,7 +6963,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="1090" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -3339,7 +6971,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="1090" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -3347,7 +6979,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="1090" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -3355,7 +6987,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="1090" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -3363,7 +6995,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="1090" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -3371,7 +7003,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="1090" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -3379,7 +7011,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="1090" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -3387,7 +7019,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="1090" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -3395,7 +7027,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="1090" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -3403,7 +7035,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="1090" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -3411,7 +7043,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="1090" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -3419,7 +7051,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="1090" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -3427,7 +7059,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="1090" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -3435,7 +7067,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="1090" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -3443,7 +7075,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="1090" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -3451,7 +7083,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="1090" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -3459,7 +7091,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="1090" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -3467,7 +7099,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="1090" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -3475,7 +7107,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="1090" t="s">
         <v>21</v>
       </c>
       <c r="B22">

--- a/2 - RiverWare Modeling/Outputs/OutputAnnualDemandsRiverSMART.xlsx
+++ b/2 - RiverWare Modeling/Outputs/OutputAnnualDemandsRiverSMART.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7666" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12086" uniqueCount="22">
   <si>
     <t>Demand Data.AnnualDemands</t>
   </si>
@@ -121,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2672">
+  <borders count="4219">
     <border>
       <left/>
       <right/>
@@ -2824,11 +2824,1558 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2674">
+  <cellXfs count="4221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -6271,6 +7818,1995 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="2669" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2670" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2671" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2672" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2673" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2674" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2675" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2676" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2677" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2678" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2679" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2680" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2681" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2682" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2683" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2684" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2685" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2686" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2687" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2688" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2689" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2690" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2691" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2692" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2693" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2694" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2695" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2696" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2697" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2698" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2699" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2700" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2701" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2702" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2703" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2704" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2705" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2706" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2707" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2708" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2709" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2710" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2711" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2712" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2713" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2714" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2715" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2716" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2717" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2718" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2719" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2720" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2721" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2722" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2723" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2724" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2725" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2726" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2727" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2728" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2729" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2730" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2731" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2732" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2733" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2734" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2735" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2736" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2737" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2738" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2739" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2740" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2741" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2742" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2743" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2744" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2745" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2746" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2747" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2748" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2749" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2750" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2751" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2752" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2753" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2754" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2755" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2756" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2757" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2758" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2759" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2760" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2761" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2762" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2763" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2764" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2765" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2766" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2767" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2768" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2769" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2770" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2771" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2772" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2773" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2774" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2775" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2776" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2777" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2778" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2779" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2780" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2781" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2782" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2783" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2784" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2785" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2786" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2787" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2788" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2789" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2790" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2791" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2792" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2793" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2794" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2795" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2796" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2797" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2798" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2799" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2800" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2801" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2802" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2803" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2804" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2805" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2806" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2807" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2808" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2809" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2810" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2811" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2812" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2813" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2814" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2815" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2816" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2817" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2818" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2819" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2820" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2821" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2822" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2823" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2824" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2825" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2826" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2827" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2828" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2829" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2830" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2831" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2832" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2833" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2834" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2835" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2836" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2837" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2838" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2839" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2840" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2841" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2842" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2843" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2844" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2845" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2846" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2847" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2848" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2849" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2850" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2851" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2852" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2853" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2854" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2855" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2856" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2857" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2858" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2859" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2860" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2861" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2862" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2863" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2864" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2865" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2866" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2867" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2868" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2869" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2870" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2871" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2872" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2873" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2874" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2875" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2876" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2877" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2878" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2879" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2880" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2881" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2882" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2883" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2884" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2885" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2886" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2887" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2888" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2889" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2890" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2891" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2892" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2893" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2894" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2895" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2896" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2897" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2898" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2899" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2900" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2901" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2902" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2903" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2904" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2905" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2906" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2907" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2908" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2909" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2910" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2911" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2912" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2913" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2914" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2915" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2916" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2917" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2918" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2919" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2920" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2921" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2922" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2923" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2924" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2925" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2926" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2927" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2928" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2929" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2930" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2931" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2932" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2933" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2934" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2935" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2936" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2937" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2938" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2939" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2940" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2941" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2942" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2943" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2944" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2945" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2946" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2947" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2948" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2949" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2950" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2951" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2952" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2953" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2954" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2955" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2956" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2957" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2958" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2959" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2960" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2961" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2962" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2963" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2964" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2965" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2966" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2967" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2968" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2969" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2970" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2971" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2972" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2973" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2974" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2975" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2976" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2977" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2978" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2979" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2980" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2981" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2982" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2983" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2984" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2985" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2986" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2987" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2988" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2989" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2990" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2991" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2992" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2993" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2994" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2995" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2996" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2997" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2998" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2999" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3000" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3001" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3002" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3003" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3004" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3005" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3006" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3007" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3008" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3009" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3010" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3011" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3012" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3013" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3014" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3015" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3016" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3017" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3018" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3019" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3020" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3021" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3022" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3023" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3024" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3025" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3026" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3027" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3028" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3029" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3030" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3031" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3032" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3033" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3034" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3035" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3036" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3037" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3038" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3039" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3040" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3041" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3042" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3043" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3044" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3045" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3046" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3047" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3048" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3049" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3050" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3051" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3052" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3053" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3054" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3055" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3056" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3057" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3058" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3059" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3060" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3061" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3062" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3063" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3064" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3065" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3066" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3067" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3068" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3069" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3070" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3071" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3072" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3073" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3074" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3075" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3076" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3077" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3078" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3079" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3080" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3081" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3082" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3083" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3084" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3085" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3086" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3087" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3088" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3089" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3090" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3091" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3092" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3093" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3094" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3095" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3096" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3097" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3098" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3099" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3105" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3112" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3119" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3126" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3133" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3140" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3147" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3154" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3161" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3168" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3175" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3182" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3189" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3196" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3203" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3210" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3217" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3224" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3231" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3238" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3245" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3252" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3259" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3266" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3273" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3280" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3287" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3294" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3301" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3308" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3315" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3320" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3322" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3327" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3329" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3334" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3336" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3341" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3343" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3348" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3349" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3350" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3354" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3355" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3356" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3357" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3361" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3362" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3363" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3364" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3368" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3369" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3370" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3371" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3375" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3376" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3377" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3378" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3382" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3383" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3384" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3385" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3389" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3390" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3391" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3392" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3396" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3397" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3398" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3399" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3403" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3404" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3405" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3406" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3407" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3408" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3409" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3410" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3411" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3412" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3413" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3414" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3415" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3416" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3417" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3418" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3419" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3420" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3421" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3422" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3423" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3424" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3425" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3426" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3427" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3428" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3429" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3430" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3431" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3432" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3433" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3434" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3435" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3436" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3437" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3438" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3439" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3440" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3441" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3442" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3443" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3444" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3445" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3446" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3447" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3448" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3449" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3450" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3451" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3452" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3453" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3454" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3455" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3456" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3457" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3458" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3459" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3460" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3461" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3462" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3463" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3464" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3465" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3466" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3467" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3468" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3469" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3470" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3471" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3472" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3473" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3474" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3475" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3476" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3477" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3478" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3479" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3480" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3481" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3482" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3483" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3484" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3485" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3486" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3487" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3488" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3489" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3490" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3491" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3492" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3493" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3494" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3495" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3496" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3497" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3498" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3499" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3500" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3501" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3502" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3503" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3504" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3505" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3506" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3507" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3508" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3509" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3510" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3511" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3512" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3513" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3514" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3515" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3516" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3517" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3518" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3519" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3520" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3521" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3522" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3523" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3524" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3525" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3526" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3527" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3528" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3529" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3530" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3531" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3532" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3533" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3534" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3535" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3536" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3537" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3538" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3539" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3540" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3541" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3542" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3543" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3544" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3545" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3546" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3547" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3548" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3549" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3550" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3551" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3552" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3553" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3554" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3555" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3556" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3557" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3558" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3559" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3560" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3561" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3562" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3563" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3564" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3565" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3566" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3567" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3568" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3569" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3570" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3571" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3572" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3573" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3574" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3575" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3576" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3577" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3578" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3579" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3580" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3581" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3582" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3583" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3584" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3585" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3586" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3587" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3588" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3589" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3590" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3591" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3592" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3593" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3594" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3595" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3596" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3597" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3598" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3599" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3600" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3601" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3602" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3603" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3604" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3605" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3606" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3607" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3608" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3609" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3610" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3611" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3612" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3613" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3614" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3615" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3616" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3617" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3618" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3619" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3620" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3621" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3622" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3623" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3624" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3625" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3626" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3627" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3628" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3629" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3630" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3631" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3632" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3633" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3634" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3635" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3636" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3637" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3638" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3639" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3640" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3641" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3642" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3643" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3644" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3645" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3646" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3647" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3648" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3649" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3650" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3651" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3652" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3653" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3654" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3655" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3656" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3657" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3658" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3659" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3660" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3661" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3662" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3663" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3664" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3665" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3666" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3667" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3668" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3669" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3670" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3671" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3672" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3673" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3674" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3675" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3676" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3677" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3678" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3679" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3680" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3681" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3682" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3683" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3684" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3685" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3686" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3687" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3688" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3689" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3690" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3691" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3692" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3693" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3694" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3695" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3696" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3697" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3698" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3699" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3700" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3701" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3702" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3703" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3704" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3705" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3706" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3707" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3708" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3709" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3710" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3711" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3712" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3713" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3714" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3715" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3716" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3717" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3718" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3719" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3720" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3721" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3722" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3723" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3724" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3725" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3726" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3727" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3728" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3729" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3730" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3731" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3732" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3733" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3734" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3735" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3736" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3737" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3738" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3739" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3740" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3741" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3742" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3743" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3744" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3745" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3746" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3747" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3748" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3749" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3750" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3751" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3752" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3753" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3754" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3755" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3756" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3757" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3758" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3759" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3760" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3761" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3762" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3763" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3764" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3765" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3766" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3767" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3768" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3769" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3770" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3771" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3772" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3773" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3774" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3775" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3776" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3777" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3778" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3779" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3780" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3781" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3782" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3783" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3784" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3785" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3786" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3787" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3788" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3789" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3790" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3791" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3792" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3793" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3794" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3795" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3796" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3797" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3798" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3799" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3800" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3801" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3802" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3803" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3804" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3805" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3806" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3807" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3808" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3809" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3810" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3811" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3812" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3813" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3814" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3815" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3816" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3817" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3818" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3819" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3820" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3821" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3822" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3823" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3824" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3825" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3826" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3827" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3828" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3829" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3830" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3831" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3832" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3833" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3834" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3835" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3836" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3837" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3838" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3839" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3840" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3841" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3842" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3843" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3844" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3845" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3846" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3847" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3848" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3849" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3850" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3851" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3852" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3853" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3854" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3855" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3856" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3857" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3858" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3859" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3860" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3861" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3862" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3863" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3864" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3865" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3866" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3867" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3868" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3869" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3870" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3871" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3872" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3873" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3874" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3875" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3876" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3877" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3878" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3879" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3880" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3881" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3882" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3883" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3884" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3885" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3886" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3887" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3888" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3889" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3890" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3891" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3892" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3893" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3894" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3895" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3896" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3897" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3898" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3899" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3900" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3901" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3902" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3903" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3904" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3905" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3906" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3907" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3908" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3909" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3910" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3911" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3912" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3913" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3914" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3915" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3916" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3917" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3918" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3919" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3920" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3921" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3922" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3923" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3924" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3925" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3926" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3927" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3928" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3929" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3930" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3931" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3932" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3933" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3934" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3935" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3936" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3937" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3938" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3939" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3940" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3941" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3942" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3943" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3944" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3945" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3946" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3947" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3948" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3949" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3950" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3951" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3952" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3953" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3954" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3955" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3956" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3957" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3958" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3959" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3960" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3961" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3962" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3963" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3964" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3965" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3966" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3967" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3968" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3969" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3970" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3971" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3972" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3973" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3974" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3975" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3976" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3977" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3978" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3979" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3980" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3981" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3982" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3983" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3984" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3985" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3986" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3987" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3988" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3989" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3990" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3991" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3992" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3993" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3994" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3995" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3996" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3997" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3998" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3999" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4000" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4001" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4002" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4003" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4004" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4005" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4006" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4007" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4008" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4009" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4010" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4011" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4012" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4013" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4014" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4015" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4016" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4017" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4018" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4019" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4020" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4021" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4022" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4023" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4024" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4025" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4026" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4027" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4028" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4029" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4030" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4031" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4032" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4033" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4034" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4035" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4036" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4037" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4038" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4039" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4040" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4041" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4042" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4043" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4044" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4045" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4046" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4047" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4048" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4049" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4050" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4051" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4052" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4053" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4054" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4055" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4056" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4057" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4058" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4059" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4060" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4061" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4062" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4063" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4064" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4065" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4066" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4067" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4068" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4069" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4070" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4071" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4072" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4073" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4074" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4075" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4076" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4077" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4078" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4079" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4080" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4081" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4082" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4083" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4084" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4085" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4086" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4087" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4088" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4089" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4090" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4091" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4092" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4093" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4094" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4095" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4096" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4097" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4098" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4099" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4106" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4113" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4120" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4127" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4134" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4141" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4148" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4155" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4162" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4169" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4176" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4183" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4190" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4197" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4204" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4211" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4218" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6584,7 +10120,7 @@
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2672" t="s">
+      <c r="A3" s="4219" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -6592,151 +10128,151 @@
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2672" t="s">
+      <c r="A4" s="4219" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>28732.420962278102</v>
+        <v>29220.313837167803</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2672" t="s">
+      <c r="A5" s="4219" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9914.0621850671996</v>
+        <v>10082.4086083518</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2672" t="s">
+      <c r="A6" s="4219" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8820.1008614675793</v>
+        <v>8568.6257256395093</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2672" t="s">
+      <c r="A7" s="4219" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6174.0706030273004</v>
+        <v>5998.0380079476599</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2672" t="s">
+      <c r="A8" s="4219" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>21266.243188205201</v>
+        <v>20659.9086940419</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2672" t="s">
+      <c r="A9" s="4219" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6058.5935575410704</v>
+        <v>6161.4719273261298</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2672" t="s">
+      <c r="A10" s="4219" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10584.121033761099</v>
+        <v>10282.350870767399</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2672" t="s">
+      <c r="A11" s="4219" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1470.0168102446</v>
+        <v>1428.1042876065901</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2672" t="s">
+      <c r="A12" s="4219" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>71276.983627979003</v>
+        <v>78259.243705318993</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2672" t="s">
+      <c r="A13" s="4219" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>49797.350864242697</v>
+        <v>54675.476132722899</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2672" t="s">
+      <c r="A14" s="4219" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>24443.103311474799</v>
+        <v>22022.498747762998</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2672" t="s">
+      <c r="A15" s="4219" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>28000.122076950596</v>
+        <v>25227.265356579199</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2672" t="s">
+      <c r="A16" s="4219" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>21250.906983483699</v>
+        <v>19146.4261501074</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2672" t="s">
+      <c r="A17" s="4219" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>66944.917278442095</v>
+        <v>60315.351047977703</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="2672" t="s">
+      <c r="A18" s="4219" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>17329.065780523099</v>
+        <v>15612.965530130499</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="2672" t="s">
+      <c r="A19" s="4219" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>55179.393669560603</v>
+        <v>49714.969188046998</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2672" t="s">
+      <c r="A20" s="4219" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>11674.3179995103</v>
+        <v>10518.2083571405</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="2672" t="s">
+      <c r="A21" s="4219" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>16599.420905553801</v>
+        <v>14955.577507809199</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
-      <c r="A22" s="2672" t="s">
+      <c r="A22" s="4219" t="s">
         <v>21</v>
       </c>
       <c r="B22">

--- a/2 - RiverWare Modeling/Outputs/OutputAnnualDemandsRiverSMART.xlsx
+++ b/2 - RiverWare Modeling/Outputs/OutputAnnualDemandsRiverSMART.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12086" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12166" uniqueCount="22">
   <si>
     <t>Demand Data.AnnualDemands</t>
   </si>
@@ -121,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4219">
+  <borders count="4247">
     <border>
       <left/>
       <right/>
@@ -4371,11 +4371,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4221">
+  <cellXfs count="4249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -9807,6 +9835,42 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4216" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4217" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4218" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4225" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4232" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4239" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4246" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10120,7 +10184,7 @@
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4219" t="s">
+      <c r="A3" s="4247" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -10128,151 +10192,151 @@
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4219" t="s">
+      <c r="A4" s="4247" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>29220.313837167803</v>
+        <v>28732.420962278102</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4219" t="s">
+      <c r="A5" s="4247" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10082.4086083518</v>
+        <v>9914.0621850671996</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4219" t="s">
+      <c r="A6" s="4247" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8568.6257256395093</v>
+        <v>8820.1008614675793</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4219" t="s">
+      <c r="A7" s="4247" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5998.0380079476599</v>
+        <v>6174.0706030273004</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4219" t="s">
+      <c r="A8" s="4247" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20659.9086940419</v>
+        <v>21266.243188205201</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4219" t="s">
+      <c r="A9" s="4247" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6161.4719273261298</v>
+        <v>6058.5935575410704</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4219" t="s">
+      <c r="A10" s="4247" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10282.350870767399</v>
+        <v>10584.121033761099</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4219" t="s">
+      <c r="A11" s="4247" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1428.1042876065901</v>
+        <v>1470.0168102446</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4219" t="s">
+      <c r="A12" s="4247" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>78259.243705318993</v>
+        <v>71276.983627979003</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4219" t="s">
+      <c r="A13" s="4247" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>54675.476132722899</v>
+        <v>49797.350864242697</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
-      <c r="A14" s="4219" t="s">
+      <c r="A14" s="4247" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>22022.498747762998</v>
+        <v>24443.103311474799</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4219" t="s">
+      <c r="A15" s="4247" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>25227.265356579199</v>
+        <v>28000.122076950596</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
-      <c r="A16" s="4219" t="s">
+      <c r="A16" s="4247" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>19146.4261501074</v>
+        <v>21250.906983483699</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="4219" t="s">
+      <c r="A17" s="4247" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>60315.351047977703</v>
+        <v>66944.917278442095</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="4219" t="s">
+      <c r="A18" s="4247" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>15612.965530130499</v>
+        <v>17329.065780523099</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="4219" t="s">
+      <c r="A19" s="4247" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>49714.969188046998</v>
+        <v>55179.393669560603</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="4219" t="s">
+      <c r="A20" s="4247" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>10518.2083571405</v>
+        <v>11674.3179995103</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="4219" t="s">
+      <c r="A21" s="4247" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>14955.577507809199</v>
+        <v>16599.420905553801</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
-      <c r="A22" s="4219" t="s">
+      <c r="A22" s="4247" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -10491,7 +10555,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1090" t="s">
+      <c r="A3" s="4226" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -10499,151 +10563,151 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1090" t="s">
+      <c r="A4" s="4226" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>29220.313837167803</v>
+        <v>18345.141894182801</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1090" t="s">
+      <c r="A5" s="4226" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10082.4086083518</v>
+        <v>6329.9531136477799</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1090" t="s">
+      <c r="A6" s="4226" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8568.6257256395093</v>
+        <v>7309.3211432756798</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1090" t="s">
+      <c r="A7" s="4226" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5998.0380079476599</v>
+        <v>5116.5248002929702</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1090" t="s">
+      <c r="A8" s="4226" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20659.9086940419</v>
+        <v>17623.585423231401</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1090" t="s">
+      <c r="A9" s="4226" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6161.4719273261298</v>
+        <v>3868.3046805625199</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1090" t="s">
+      <c r="A10" s="4226" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10282.350870767399</v>
+        <v>8771.1853719308092</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1090" t="s">
+      <c r="A11" s="4226" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1428.1042876065901</v>
+        <v>1218.2201905459499</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1090" t="s">
+      <c r="A12" s="4226" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>78259.243705318993</v>
+        <v>35553.633820141098</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1090" t="s">
+      <c r="A13" s="4226" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>54675.476132722899</v>
+        <v>24839.3897682477</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1090" t="s">
+      <c r="A14" s="4226" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>22022.498747762998</v>
+        <v>13167.4209314693</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1090" t="s">
+      <c r="A15" s="4226" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>25227.265356579199</v>
+        <v>15083.575470004002</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1090" t="s">
+      <c r="A16" s="4226" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>19146.4261501074</v>
+        <v>11447.7950635535</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1090" t="s">
+      <c r="A17" s="4226" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>60315.351047977703</v>
+        <v>36063.011058576398</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1090" t="s">
+      <c r="A18" s="4226" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>15612.965530130499</v>
+        <v>9335.11185439986</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1090" t="s">
+      <c r="A19" s="4226" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>49714.969188046998</v>
+        <v>29724.9614311154</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1090" t="s">
+      <c r="A20" s="4226" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>10518.2083571405</v>
+        <v>6288.91745980628</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1090" t="s">
+      <c r="A21" s="4226" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>14955.577507809199</v>
+        <v>8942.0545131618801</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1090" t="s">
+      <c r="A22" s="4226" t="s">
         <v>21</v>
       </c>
       <c r="B22">

--- a/2 - RiverWare Modeling/Outputs/OutputAnnualDemandsRiverSMART.xlsx
+++ b/2 - RiverWare Modeling/Outputs/OutputAnnualDemandsRiverSMART.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12166" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12366" uniqueCount="22">
   <si>
     <t>Demand Data.AnnualDemands</t>
   </si>
@@ -121,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4247">
+  <borders count="4317">
     <border>
       <left/>
       <right/>
@@ -4399,11 +4399,81 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4249">
+  <cellXfs count="4319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -9871,6 +9941,96 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4244" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4245" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4246" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4253" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4260" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4267" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4274" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4281" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4288" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4295" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4302" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4309" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4316" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10184,7 +10344,7 @@
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4247" t="s">
+      <c r="A3" s="4317" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -10192,151 +10352,151 @@
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4247" t="s">
+      <c r="A4" s="4317" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>28732.420962278102</v>
+        <v>31681.743579397</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4247" t="s">
+      <c r="A5" s="4317" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9914.0621850671996</v>
+        <v>10931.7198293127</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4247" t="s">
+      <c r="A6" s="4317" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8820.1008614675793</v>
+        <v>9044.1817783549395</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4247" t="s">
+      <c r="A7" s="4317" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6174.0706030273004</v>
+        <v>6330.9272448484598</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4247" t="s">
+      <c r="A8" s="4317" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>21266.243188205201</v>
+        <v>21806.527176700201</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4247" t="s">
+      <c r="A9" s="4317" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6058.5935575410704</v>
+        <v>6680.4954512466502</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4247" t="s">
+      <c r="A10" s="4317" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10584.121033761099</v>
+        <v>10853.018134025901</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4247" t="s">
+      <c r="A11" s="4317" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1470.0168102446</v>
+        <v>1507.3636297258199</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4247" t="s">
+      <c r="A12" s="4317" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>71276.983627979003</v>
+        <v>92888.6433827867</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4247" t="s">
+      <c r="A13" s="4317" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>49797.350864242697</v>
+        <v>64896.241821608295</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
-      <c r="A14" s="4247" t="s">
+      <c r="A14" s="4317" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>24443.103311474799</v>
+        <v>27394.692609923703</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4247" t="s">
+      <c r="A15" s="4317" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>28000.122076950596</v>
+        <v>31381.233698681299</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
-      <c r="A16" s="4247" t="s">
+      <c r="A16" s="4317" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>21250.906983483699</v>
+        <v>23817.027530269501</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="4247" t="s">
+      <c r="A17" s="4317" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>66944.917278442095</v>
+        <v>75028.747670462704</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="4247" t="s">
+      <c r="A18" s="4317" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>17329.065780523099</v>
+        <v>19421.610432408601</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="4247" t="s">
+      <c r="A19" s="4317" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>55179.393669560603</v>
+        <v>61842.496376879993</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="4247" t="s">
+      <c r="A20" s="4317" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>11674.3179995103</v>
+        <v>9488.8148702581802</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="4247" t="s">
+      <c r="A21" s="4317" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>16599.420905553801</v>
+        <v>18603.858414201899</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
-      <c r="A22" s="4247" t="s">
+      <c r="A22" s="4317" t="s">
         <v>21</v>
       </c>
       <c r="B22">
